--- a/DAC_combo_candidates.xlsx
+++ b/DAC_combo_candidates.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,11 @@
           <t>drug_targets</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>AML cell lines in GDSC</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,7 @@
           <t>SQLE</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
@@ -526,6 +532,7 @@
           <t>SQLE</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
@@ -547,6 +554,7 @@
           <t>SQLE</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -568,6 +576,7 @@
           <t>CA1,CA2,CA4,SQLE,PRKCB,PRKCA,CSNK2A1,SYK,CA12,CA9,CA3,CA5A,CA5B,CA6,CA7,CA14,PRKACA</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -591,6 +600,11 @@
       <c r="E6" t="inlineStr">
         <is>
           <t>DHODH,PTK2B,AHR</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>TUR, SKM-1, OCI-M1, OCI-AML5, OCI-AML3, OCI-AML2, NOMO-1, MOLM-13, ML-2, ME-1, KY821, KMOE-2, KG-1, KASUMI-1, HL-60, HEL, GDM-1, CESS</t>
         </is>
       </c>
     </row>
@@ -614,6 +628,7 @@
           <t>DHODH</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -635,6 +650,7 @@
           <t>DHODH</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -656,6 +672,7 @@
           <t>DHODH</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
@@ -677,6 +694,7 @@
           <t>DHODH</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -698,6 +716,7 @@
           <t>DHODH,PNLIPRP2</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -719,6 +738,7 @@
           <t>NOS1,PNPO,RFK,DHODH,BLVRB,DPYD,POR,PPCDC,HAO1,SGK1,HAO2,RPS6KA4</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
@@ -740,6 +760,7 @@
           <t>DHODH</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -761,6 +782,7 @@
           <t>DHODH,RHO,MAOB,IGKV1D-33,IGHV3-23,DSTN,NFE2L1,PMP2,CFL1</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -782,6 +804,7 @@
           <t>DHODH</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
@@ -803,6 +826,7 @@
           <t>DHODH</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -824,6 +848,7 @@
           <t>DHODH</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -845,6 +870,7 @@
           <t>DHODH</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
@@ -866,6 +892,7 @@
           <t>DHODH</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -887,6 +914,7 @@
           <t>DHODH</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -908,6 +936,7 @@
           <t>DHODH</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
@@ -929,6 +958,7 @@
           <t>DHODH</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -950,6 +980,7 @@
           <t>DHODH</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -971,6 +1002,7 @@
           <t>DHODH</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
@@ -992,6 +1024,7 @@
           <t>DHODH</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
@@ -1013,6 +1046,7 @@
           <t>DHODH</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
@@ -1034,6 +1068,7 @@
           <t>DHODH</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n"/>
@@ -1055,6 +1090,7 @@
           <t>DHODH</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
@@ -1076,6 +1112,7 @@
           <t>DHODH</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
@@ -1097,6 +1134,7 @@
           <t>DHODH</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
@@ -1118,6 +1156,7 @@
           <t>DHODH</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1141,6 +1180,11 @@
       <c r="E32" t="inlineStr">
         <is>
           <t>TUBB1,BCL2,NR1I2,MAP2,MAPT,MAP4,TUBB1</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>TUR, TUR, THP-1, SKM-1, SIG-M5, QIMR-WIL, PL-21, OCI-M1, OCI-M1, OCI-AML5, OCI-AML3, OCI-AML3, OCI-AML2, OCI-AML2, NOMO-1, NOMO-1, NKM-1, NKM-1, MONO-MAC-6, MONO-MAC-6, MOLM-13, MOLM-13, ML-2, ML-2, ME-1, ME-1, KY821, KY821, KMOE-2, KMOE-2, KG-1, KG-1, KASUMI-1, HL-60, HL-60, HEL, GDM-1, GDM-1, CMK, CESS</t>
         </is>
       </c>
     </row>
@@ -1164,6 +1208,11 @@
           <t>TUBB1,BCL2,NR1I2,MAP2,MAPT,MAP4,TUBB1</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>TUR, TUR, THP-1, SKM-1, QIMR-WIL, PL-21, OCI-M1, OCI-M1, OCI-AML5, OCI-AML5, OCI-AML3, OCI-AML3, OCI-AML2, OCI-AML2, NOMO-1, NOMO-1, NKM-1, NKM-1, MONO-MAC-6, MONO-MAC-6, MOLM-16, MOLM-13, MOLM-13, ML-2, ML-2, ME-1, ME-1, KY821, KY821, KMOE-2, KMOE-2, KG-1, KG-1, KASUMI-1, HL-60, HL-60, HEL, GDM-1, GDM-1, CMK, CESS, CESS</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n"/>
@@ -1185,6 +1234,7 @@
           <t>TUBB1,BCL2,TUBB1</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n"/>
@@ -1206,6 +1256,7 @@
           <t>PTGS1,PPARA,PPARG,BCL2,PTGS2,GP1BA,THBD,CFTR,FABP2,S100A7,PTGS1</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n"/>
@@ -1227,6 +1278,7 @@
           <t>BCL2,MAOB</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n"/>
@@ -1248,6 +1300,7 @@
           <t>BCL2</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n"/>
@@ -1269,6 +1322,7 @@
           <t>BCL2</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n"/>
@@ -1290,6 +1344,7 @@
           <t>BCL2</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n"/>
@@ -1311,6 +1366,7 @@
           <t>PTGS1,PPARA,PPARG,BCL2,PTGS2,SLC15A1,GP1BA,PLAT,THBD,CFTR,FABP2,S100A7,PTGS1</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n"/>
@@ -1332,6 +1388,7 @@
           <t>BCL2,BCL2L1,MCL1</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n"/>
@@ -1353,6 +1410,11 @@
           <t>BCL2</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>TUR, OCI-M1, OCI-AML3, OCI-AML2, NOMO-1, NKM-1, MONO-MAC-6, MOLM-13, ML-2, ME-1, KY821, KMOE-2, KG-1, HL-60, GDM-1, CESS</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n"/>
@@ -1374,6 +1436,7 @@
           <t>BCL2</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n"/>
@@ -1393,6 +1456,11 @@
       <c r="E44" t="inlineStr">
         <is>
           <t>BCL2,BCL2L2-PABPN1,BAD</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>TUR, TUR, THP-1, SKM-1, QIMR-WIL, PL-21, OCI-M1, OCI-M1, OCI-AML5, OCI-AML5, OCI-AML3, OCI-AML3, OCI-AML2, NOMO-1, NKM-1, NKM-1, MONO-MAC-6, MONO-MAC-6, MOLM-16, MOLM-13, MOLM-13, ML-2, ML-2, ME-1, ME-1, KY821, KY821, KMOE-2, KMOE-2, KG-1, KG-1, HL-60, HL-60, HEL, GDM-1, GDM-1, CMK, CESS, CESS</t>
         </is>
       </c>
     </row>
